--- a/database/httpswwwinstagramcomstephenellcock.xlsx
+++ b/database/httpswwwinstagramcomstephenellcock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,120 +508,584 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/about/jobs/</t>
+          <t>https://l.instagram.com/?u=https%3A%2F%2Flinktr.ee%2Fstephenellcock&amp;amp;e=ATPpPaDYtworOhBcvX3HLdNCowBNzl-BDoiZfUsT3QgwJQqMjCkssBgOcyqz8R2pg25b0yfU02e2q44lsJt6PRqTaSKYLv9p7zAyyWc&amp;amp;s=1</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Praca</t>
+          <t>linktr.ee/stephenellcock</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/accounts/emailsignup/</t>
+          <t>https://www.instagram.com/about/jobs/</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Zarejestruj się</t>
+          <t>Praca</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/accounts/password/reset/</t>
+          <t>https://www.instagram.com/directory/hashtags/</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nie pamiętasz hasła?</t>
+          <t>Hasztagi</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/directory/hashtags/</t>
+          <t>https://www.instagram.com/directory/profiles/</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Hasztagi</t>
+          <t>Najpopularniejsze konta</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/directory/profiles/</t>
+          <t>https://www.instagram.com/explore/locations/</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Najpopularniejsze konta</t>
+          <t>Lokalizacje</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/explore/locations/</t>
+          <t>https://www.instagram.com/legal/privacy/</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Lokalizacje</t>
+          <t>Prywatność</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/legal/cookies/</t>
+          <t>https://www.instagram.com/legal/terms/</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Zasadach dotyczących plików cookie</t>
+          <t>Regulamin</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/legal/privacy/</t>
+          <t>https://www.instagram.com/stephenellcock/</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Prywatność</t>
+          <t>Posty</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>https://www.instagram.com/legal/terms/</t>
+          <t>https://www.instagram.com/stephenellcock/channel/</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Regulamin</t>
+          <t>Filmy</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>https://www.instagram.com/stephenellcock/followers/</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>obserwujących</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/stephenellcock/following/</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Obserwowani:</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/stephenellcock/tagged/</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Z oznaczeniem</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>https://www.instagram.com/web/lite/</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>Instagram Lite</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://l.instagram.com/?u=https%3A%2F%2Flinktr.ee%2Fstephenellcock&amp;amp;e=ATOJrSJBYpmDfSNTEKW8VZwB1raCBVik6SiRkChDnaMLxDao88zuivtg_HuuWzy5pyQaApqAlHZY-fFK4HZfW_s-zobxxoTuvTP_NT8&amp;amp;s=1</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>linktr.ee/stephenellcock</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://l.instagram.com/?u=https%3A%2F%2Flinktr.ee%2Fstephenellcock&amp;amp;e=ATMK5ucABs270pHKZM9PLa1ntxMvaAXWj3sK9gn10VZwJLU7lgA0_yoJVH9xeqT-MRgSZzz_HMEgmy2GOiZyvaoa22gp-zQK6_JpRBU&amp;amp;s=1</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>linktr.ee/stephenellcock</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/accounts/activity/</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/direct/inbox/</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/explore/</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Ca-tzDStSRP/</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Ca-uGa-NRMt/</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Ca-uV5YNiox/</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Ca-ulfUt2sZ/</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Ca-uzZBtu-o/</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Ca-vfaKNo6z/</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Ca2M_05N6ks/</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Ca2OSdaNv8i/</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Ca2P6I0tZag/</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cann_iytnwg/</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Cano2Hrt7dt/</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CanpjPsNb-3/</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Canpw4VNtNz/</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CanqNabtvtG/</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CanqhGAtYFP/</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CaxxdqutGIq/</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CaxyQB8N69n/</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CaxzJdethqv/</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Caxzacftpxl/</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CaxzryANsCe/</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CbD3Qzct1rJ/</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CbD4oMSNS3p/</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/CbD717fNEWa/</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>https://l.instagram.com/?u=https%3A%2F%2Flinktr.ee%2Fstephenellcock&amp;amp;e=ATN5jkG3UlQo32X5Bx6n1geTzMqPEZH0zbcvLyAeGLLJjnniLIJafesjETasjTtBrqqdXPezwjUJWg2WjlP9F66oHEi6G7ocpiEgJ04&amp;amp;s=1</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>linktr.ee/stephenellcock</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>https://l.instagram.com/?u=https%3A%2F%2Flinktr.ee%2Fstephenellcock&amp;amp;e=ATPQ79DayjWyJQsBZEgN7Flk3upY5aucp38XNx7nlgz_Qp0DmOksf3UNvEPfMEU4D1t79lWypMbWQ-mB1lZBDSN_8UhltSNsZJkGnXE&amp;amp;s=1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>linktr.ee/stephenellcock</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>https://l.instagram.com/?u=https%3A%2F%2Flinktr.ee%2Fstephenellcock&amp;amp;e=ATMimTfhDZHTQR59LFNcG6u7o42rNqfENVanbBEtmaPO8NOiYITfzANrWLp1rjz562B6YfMx_srfQfKldeARcsTTla1KKgaHNpQa0SE&amp;amp;s=1</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>linktr.ee/stephenellcock</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>https://l.instagram.com/?u=https%3A%2F%2Flinktr.ee%2Fstephenellcock&amp;amp;e=ATMPugXOrwi7jYwKPSzWpuWWR1MFvQzALxLtAcLOsvKiE_paBOgwfG4IJ5cDznooblJ7nn79Uvd8q7r9uAnKILx6Kq-eH7L-6B_1VXA&amp;amp;s=1</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>linktr.ee/stephenellcock</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>https://l.instagram.com/?u=https%3A%2F%2Flinktr.ee%2Fstephenellcock&amp;amp;e=ATMHrpxdGrolnQrrvVYu2spx9KhMTx1ATAGEl-xpZggX0K6sJLH1JSPJ-z20sWwsoEjnV3ZejbI6dprGhpKt6m8Zf_qS3TQw5vs22Q4&amp;amp;s=1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>linktr.ee/stephenellcock</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>https://l.instagram.com/?u=https%3A%2F%2Flinktr.ee%2Fstephenellcock&amp;amp;e=ATMCVa6aGQ_eq1BnbUezOsNxbKiVPN0fhjUShaFEY1Y0NYE5Vsh-ZrLKpOSvi8ouOV2tAmCV5yhipHbTDublVkhVY3xLgG2RS4LPpYo&amp;amp;s=1</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>linktr.ee/stephenellcock</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>https://l.instagram.com/?u=https%3A%2F%2Flinktr.ee%2Fstephenellcock&amp;amp;e=ATO6-bzgTiOj_YA1lA2C6BszK0KiuZEXeRnHmDEh3klznYnOpabhjkwOru70L4s6K8Zn9b3GYwoqvAzZeTRMpj0NgH4OdzQ_a4GELGk&amp;amp;s=1</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>linktr.ee/stephenellcock</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>https://l.instagram.com/?u=https%3A%2F%2Flinktr.ee%2Fstephenellcock&amp;amp;e=ATPmvQGeDPPgYs8rg5sQJV5dfkmip5k-u-5NSN6aZ4pMDeQ_fYnZr_8-pC4TB0i-O7MaKeKLgum0m68c9ofgB-tLMWNKfVD52_ZrAyw&amp;amp;s=1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>linktr.ee/stephenellcock</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/p/Caxyk3INhVs/</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>https://l.instagram.com/?u=https%3A%2F%2Flinktr.ee%2Fstephenellcock&amp;amp;e=ATPPiNSSCf6C1Qlw-Pcpv8rukqCs-dvpctT6j31fROjNjJEo4NrEw_68Gh8DHgsmr8icnduzfcBT-m9qFzSFFzXs1BFWcQhynOsQOE8&amp;amp;s=1</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>linktr.ee/stephenellcock</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>https://itunes.apple.com/app/instagram/id389801252?pt=428156&amp;amp;ct=igweb.loginPage.badge&amp;amp;mt=8&amp;amp;vt=lo</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>https://play.google.com/store/apps/details?id=com.instagram.android&amp;amp;referrer=utm_source%3Dinstagramweb%26utm_campaign%3DloginPage%26ig_mid%3D6EF2AE72-2C33-4F89-8236-4B006DF0C524%26utm_content%3Dlo%26utm_medium%3Dbadge</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/accounts/emailsignup/</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Zarejestruj się</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/accounts/password/reset/</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Nie pamiętasz hasła?</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>https://l.instagram.com/?u=https%3A%2F%2Flinktr.ee%2Fstephenellcock&amp;amp;e=ATN2VezUlJQHZekjJbSjmBKXHHF5ZgPnQG6MkAknCNiYxX4ScC1SAsTA5I6iqQzjCYtHqsq9Zq5PAhnQwWEZntjZHorB5VKZ8lmea3o&amp;amp;s=1</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>linktr.ee/stephenellcock</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>https://play.google.com/store/apps/details?id=com.instagram.android&amp;amp;referrer=utm_source%3Dinstagramweb%26utm_campaign%3DloginPage%26ig_mid%3D24F9F05D-A2D0-47F9-AC25-7ACBEB1C9FEC%26utm_content%3Dlo%26utm_medium%3Dbadge</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>https://l.instagram.com/?u=https%3A%2F%2Flinktr.ee%2Fstephenellcock&amp;amp;e=ATMn4SHPSyOY0NVTJxmXX_mvMzECfp2tbjKfRCyVPSQKJ53FzmB_P7SSx4HghjA67hLbWBdAxbYL67mA8d2qWMmbDBd69qvS7QBdGo8&amp;amp;s=1</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>linktr.ee/stephenellcock</t>
         </is>
       </c>
     </row>

--- a/database/httpswwwinstagramcomstephenellcock.xlsx
+++ b/database/httpswwwinstagramcomstephenellcock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1089,6 +1089,18 @@
         </is>
       </c>
     </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>https://l.instagram.com/?u=https%3A%2F%2Flinktr.ee%2Fstephenellcock&amp;amp;e=ATPeI7iL8f0a7Wdjy-zCW6gPfWAA0936wdXpj-ZKqJRJ-7fMoF7BVQQ0IkYR4WDvf_hcPaGH1Z_kPNzMxfqMSTVEkkFmQ-YOgG_4eI4&amp;amp;s=1</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>linktr.ee/stephenellcock</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpswwwinstagramcomstephenellcock.xlsx
+++ b/database/httpswwwinstagramcomstephenellcock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1101,6 +1101,14 @@
         </is>
       </c>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/href="/"</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/database/httpswwwinstagramcomstephenellcock.xlsx
+++ b/database/httpswwwinstagramcomstephenellcock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1109,6 +1109,14 @@
       </c>
       <c r="B67" t="inlineStr"/>
     </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>https://play.google.com/store/apps/details?id=com.instagram.android&amp;amp;referrer=utm_source%3Dinstagramweb%26utm_campaign%3DloginPage%26ig_mid%3DC7BED7A3-B56E-4E4F-A3E3-F9B119AADC9D%26utm_content%3Dlo%26utm_medium%3Dbadge</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
